--- a/hard/pcb/v3.0/art/bom.xlsx
+++ b/hard/pcb/v3.0/art/bom.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="195" windowWidth="14805" windowHeight="7920"/>
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="bom" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="65">
   <si>
     <t>标称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -251,6 +251,18 @@
   </si>
   <si>
     <t>30mm*15mm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BMP280</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lga8</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -658,10 +670,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:H25"/>
+  <dimension ref="B1:H26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -732,7 +744,7 @@
         <v>21</v>
       </c>
       <c r="E5" s="7">
-        <f t="shared" ref="E5:E24" si="0">G5*D5</f>
+        <f t="shared" ref="E5:E25" si="0">G5*D5</f>
         <v>0.25</v>
       </c>
       <c r="G5" s="9">
@@ -1013,87 +1025,105 @@
       </c>
     </row>
     <row r="21" spans="2:8">
-      <c r="B21" s="6" t="s">
+      <c r="B21" t="s">
+        <v>62</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E21" s="7">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="G21" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8">
+      <c r="B22" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C22" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="D22" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E21" s="7">
+      <c r="E22" s="7">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="F21" s="8"/>
-      <c r="G21" s="9">
+      <c r="F22" s="8"/>
+      <c r="G22" s="9">
         <v>0.5</v>
       </c>
     </row>
-    <row r="22" spans="2:8">
-      <c r="B22" t="s">
+    <row r="23" spans="2:8">
+      <c r="B23" t="s">
         <v>59</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C23" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D23" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E22" s="7">
+      <c r="E23" s="7">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="G22" s="9">
+      <c r="G23" s="9">
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="2:8">
-      <c r="B23" s="10" t="s">
+    <row r="24" spans="2:8">
+      <c r="B24" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C23" s="11" t="s">
+      <c r="C24" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="D23" s="11" t="s">
+      <c r="D24" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="E23" s="11">
+      <c r="E24" s="11">
         <f t="shared" si="0"/>
         <v>20</v>
-      </c>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8">
-      <c r="B24" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="D24" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="E24" s="11">
-        <f t="shared" si="0"/>
-        <v>9</v>
       </c>
       <c r="F24" s="12"/>
       <c r="G24" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8">
+      <c r="B25" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E25" s="11">
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="25" spans="2:8">
-      <c r="D25" s="1" t="s">
+      <c r="F25" s="12"/>
+      <c r="G25" s="12">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8">
+      <c r="D26" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E25" s="1">
-        <f>SUM(E4:E24)</f>
-        <v>82.615000000000009</v>
+      <c r="E26" s="1">
+        <f>SUM(E4:E25)</f>
+        <v>88.615000000000009</v>
       </c>
     </row>
   </sheetData>
